--- a/data/input/employee_absence_data_16.xlsx
+++ b/data/input/employee_absence_data_16.xlsx
@@ -464,40 +464,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5651</v>
+        <v>39013</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nathan Machado</t>
+          <t>Sr. Murilo Fonseca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>11591.73</v>
+        <v>3810.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38876</v>
+        <v>47813</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lara Porto</t>
+          <t>Dr. Rhavi Duarte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,201 +511,201 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>4574.63</v>
+        <v>9532.799999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>53507</v>
+        <v>65225</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Emanuel Silva</t>
+          <t>Gustavo Henrique Macedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>6454.58</v>
+        <v>2397.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3220</v>
+        <v>39268</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giovanna Gomes</t>
+          <t>Cauã Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>5249.66</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18201</v>
+        <v>67128</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nathan Sales</t>
+          <t>Manuella Ferreira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45105</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>9890.620000000001</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55468</v>
+        <v>73654</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Caroline Machado</t>
+          <t>Melissa Moreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45097</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>4480.67</v>
+        <v>3976.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>48477</v>
+        <v>49719</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Calebe Barros</t>
+          <t>Mirella Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45099</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>10000.37</v>
+        <v>5897.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>55764</v>
+        <v>67654</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luna Moraes</t>
+          <t>Eduarda Cirino</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45083</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>4069.99</v>
+        <v>5596.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10043</v>
+        <v>64407</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Stephany da Luz</t>
+          <t>Antônio Moreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,22 +714,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45095</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>3804.88</v>
+        <v>3468.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>48413</v>
+        <v>66645</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Câmara</t>
+          <t>Ana Lívia Silveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>8405.24</v>
+        <v>2603.51</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_16.xlsx
+++ b/data/input/employee_absence_data_16.xlsx
@@ -464,132 +464,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39013</v>
+        <v>23356</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Murilo Fonseca</t>
+          <t>Natália Farias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>3810.89</v>
+        <v>9315.950000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>47813</v>
+        <v>81588</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Rhavi Duarte</t>
+          <t>Pedro Miguel Monteiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>9532.799999999999</v>
+        <v>3259.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65225</v>
+        <v>79661</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Macedo</t>
+          <t>Dra. Eloah Lima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45083</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>2397.96</v>
+        <v>9027.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39268</v>
+        <v>59138</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cauã Correia</t>
+          <t>Maria Helena Brito</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45087</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>5645</v>
+        <v>2605.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67128</v>
+        <v>26737</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Manuella Ferreira</t>
+          <t>Sofia Freitas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45087</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>7082</v>
+        <v>2750.93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73654</v>
+        <v>49672</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Melissa Moreira</t>
+          <t>Brenda Sampaio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,60 +623,60 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>3976.85</v>
+        <v>4339.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49719</v>
+        <v>22060</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mirella Fogaça</t>
+          <t>Dra. Maria Laura Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45090</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>5897.83</v>
+        <v>3583.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67654</v>
+        <v>83399</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eduarda Cirino</t>
+          <t>Yago Moraes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -688,68 +688,68 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45088</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>5596.96</v>
+        <v>7444.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64407</v>
+        <v>67308</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Antônio Moreira</t>
+          <t>Thales Garcia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45093</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>3468.37</v>
+        <v>2298.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66645</v>
+        <v>44564</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Lívia Silveira</t>
+          <t>Maria Flor Fonseca</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45083</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>2603.51</v>
+        <v>3117.5</v>
       </c>
     </row>
   </sheetData>
